--- a/临时ui设计.xlsx
+++ b/临时ui设计.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
-  <si>
-    <t>SCV 添加悬浮按钮：组1.适应宽度、适应高度 组2.切换预览模式</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
   <si>
     <t>标题栏，显示当前打开漫画的路径</t>
   </si>
@@ -110,9 +107,6 @@
   </si>
   <si>
     <t>退出</t>
-  </si>
-  <si>
-    <t>显示低质图像</t>
   </si>
   <si>
     <t>图像锐化</t>
@@ -163,9 +157,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -183,7 +177,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,22 +236,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,9 +300,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -240,85 +313,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -353,187 +347,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,6 +654,26 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,11 +693,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -706,6 +726,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -726,41 +755,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -769,10 +763,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -781,16 +775,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -799,115 +793,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1297,27 +1291,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="D2:Q44"/>
+  <dimension ref="D4:Q44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" spans="7:7">
-      <c r="G2" t="s">
-        <v>0</v>
-      </c>
-    </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="4:12">
       <c r="D5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -1327,15 +1316,15 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="4:14">
       <c r="D6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>5</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -1345,35 +1334,35 @@
       <c r="K6" s="4"/>
       <c r="L6" s="16"/>
       <c r="N6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="4:15">
       <c r="D7" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L7" s="17"/>
       <c r="N7" t="s">
+        <v>7</v>
+      </c>
+      <c r="O7" t="s">
         <v>8</v>
-      </c>
-      <c r="O7" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="8" spans="4:15">
       <c r="D8" s="6"/>
       <c r="L8" s="17"/>
       <c r="N8" t="s">
+        <v>9</v>
+      </c>
+      <c r="O8" t="s">
         <v>10</v>
-      </c>
-      <c r="O8" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="9" spans="4:15">
       <c r="D9" s="6"/>
       <c r="F9" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -1381,16 +1370,16 @@
       <c r="J9" s="10"/>
       <c r="L9" s="17"/>
       <c r="N9" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" t="s">
         <v>13</v>
-      </c>
-      <c r="O9" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="10" spans="4:15">
       <c r="D10" s="6"/>
       <c r="F10" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -1398,16 +1387,16 @@
       <c r="J10" s="10"/>
       <c r="L10" s="17"/>
       <c r="N10" t="s">
+        <v>15</v>
+      </c>
+      <c r="O10" t="s">
         <v>16</v>
-      </c>
-      <c r="O10" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="11" spans="4:12">
       <c r="D11" s="6"/>
       <c r="F11" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -1419,7 +1408,7 @@
       <c r="D12" s="6"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -1453,15 +1442,15 @@
       <c r="J15" s="10"/>
       <c r="L15" s="17"/>
       <c r="N15" t="s">
+        <v>19</v>
+      </c>
+      <c r="O15" t="s">
         <v>20</v>
-      </c>
-      <c r="O15" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="16" spans="4:15">
       <c r="D16" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -1469,15 +1458,15 @@
       <c r="I16" s="7"/>
       <c r="J16" s="10"/>
       <c r="L16" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="O16" s="21" t="s">
         <v>22</v>
-      </c>
-      <c r="O16" s="21" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="17" spans="4:15">
       <c r="D17" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -1485,10 +1474,10 @@
       <c r="I17" s="7"/>
       <c r="J17" s="10"/>
       <c r="L17" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="O17" t="s">
         <v>25</v>
-      </c>
-      <c r="O17" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="18" spans="4:15">
@@ -1500,7 +1489,7 @@
       <c r="J18" s="10"/>
       <c r="L18" s="18"/>
       <c r="O18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="4:15">
@@ -1512,7 +1501,7 @@
       <c r="J19" s="10"/>
       <c r="L19" s="18"/>
       <c r="O19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="4:15">
@@ -1524,7 +1513,7 @@
       <c r="J20" s="10"/>
       <c r="L20" s="17"/>
       <c r="O20" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="4:17">
@@ -1536,10 +1525,10 @@
       <c r="J21" s="10"/>
       <c r="L21" s="17"/>
       <c r="O21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="4:17">
@@ -1551,13 +1540,13 @@
       <c r="J22" s="10"/>
       <c r="L22" s="17"/>
       <c r="O22" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="4:17">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="4:15">
       <c r="D23" s="6"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
@@ -1566,10 +1555,7 @@
       <c r="J23" s="10"/>
       <c r="L23" s="17"/>
       <c r="O23" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="4:17">
@@ -1581,7 +1567,7 @@
       <c r="J24" s="10"/>
       <c r="L24" s="17"/>
       <c r="Q24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="4:17">
@@ -1593,7 +1579,7 @@
       <c r="J25" s="10"/>
       <c r="L25" s="17"/>
       <c r="Q25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="4:12">
@@ -1629,28 +1615,28 @@
     </row>
     <row r="30" spans="4:12">
       <c r="D30" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="G30" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F30" s="11" t="s">
+      <c r="I30" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G30" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H30" s="11" t="s">
+      <c r="K30" s="11" t="s">
         <v>38</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J30" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="K30" s="11" t="s">
-        <v>40</v>
       </c>
       <c r="L30" s="19"/>
     </row>
@@ -1668,31 +1654,31 @@
     <row r="32" spans="4:12">
       <c r="D32" s="12"/>
       <c r="E32" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H32" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F32" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="G32" s="13" t="s">
+      <c r="I32" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J32" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="H32" s="13" t="s">
+      <c r="K32" s="13" t="s">
         <v>43</v>
-      </c>
-      <c r="I32" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="J32" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="K32" s="13" t="s">
-        <v>45</v>
       </c>
       <c r="L32" s="20"/>
     </row>
     <row r="36" spans="6:6">
       <c r="F36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="5:5">

--- a/临时ui设计.xlsx
+++ b/临时ui设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19785" windowHeight="10530"/>
+    <workbookView windowWidth="15885" windowHeight="7665"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
   <si>
     <t>标题栏，显示当前打开漫画的路径</t>
   </si>
@@ -76,13 +76,13 @@
     <t>右键菜单</t>
   </si>
   <si>
-    <t>选择文件夹/压缩包</t>
+    <t>1.选择漫画文件夹</t>
   </si>
   <si>
     <t>切页按钮 淡入淡出</t>
   </si>
   <si>
-    <t>---</t>
+    <t>2.选择漫画压缩包</t>
   </si>
   <si>
     <t>&lt;</t>
@@ -91,13 +91,13 @@
     <t>&gt;</t>
   </si>
   <si>
-    <t>双页模式</t>
-  </si>
-  <si>
-    <t>横向无缝模式</t>
-  </si>
-  <si>
-    <t>纵向无缝模式</t>
+    <t>3.选项</t>
+  </si>
+  <si>
+    <t>4.关于</t>
+  </si>
+  <si>
+    <t>5.退出</t>
   </si>
   <si>
     <t>更多选项</t>
@@ -106,15 +106,18 @@
     <t>自动跳过纯色页</t>
   </si>
   <si>
-    <t>退出</t>
-  </si>
-  <si>
     <t>图像锐化</t>
   </si>
   <si>
     <t>在最后一页下一页时的操作，切回第一页/切换下一本漫画</t>
   </si>
   <si>
+    <t>清单设计</t>
+  </si>
+  <si>
+    <t>悬浮在主ui右下方</t>
+  </si>
+  <si>
     <t>控制栏 淡入淡出</t>
   </si>
   <si>
@@ -131,6 +134,33 @@
   </si>
   <si>
     <t>≡</t>
+  </si>
+  <si>
+    <t>已阅（灰色勾勾和绿色勾勾）</t>
+  </si>
+  <si>
+    <t>漫画类型/显示图标 压缩包或文件夹</t>
+  </si>
+  <si>
+    <t>漫画标题（不含后缀的文件名）</t>
+  </si>
+  <si>
+    <t>漫画页数</t>
+  </si>
+  <si>
+    <t>文件大小(MB)</t>
+  </si>
+  <si>
+    <t>图标1</t>
+  </si>
+  <si>
+    <t>xxxxx</t>
+  </si>
+  <si>
+    <t>24页</t>
+  </si>
+  <si>
+    <t>25MB</t>
   </si>
   <si>
     <t>放大缩小，最大只能宽度到程序宽度</t>
@@ -156,10 +186,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -190,6 +220,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -198,9 +281,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,22 +329,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,84 +349,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -347,19 +377,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.05"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,25 +527,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,138 +569,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -647,6 +689,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -662,17 +719,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -693,6 +739,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -708,6 +778,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -725,33 +804,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -763,149 +820,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -966,10 +1023,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1290,11 +1350,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="D4:Q44"/>
+  <sheetPr/>
+  <dimension ref="D4:S44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="K19" workbookViewId="0">
+      <selection activeCell="R34" sqref="R34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1460,7 +1520,7 @@
       <c r="L16" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="O16" s="21" t="s">
+      <c r="O16" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1504,7 +1564,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="4:15">
+    <row r="20" spans="4:12">
       <c r="D20" s="6"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
@@ -1512,9 +1572,6 @@
       <c r="I20" s="7"/>
       <c r="J20" s="10"/>
       <c r="L20" s="17"/>
-      <c r="O20" s="21" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="21" spans="4:17">
       <c r="D21" s="6"/>
@@ -1524,9 +1581,6 @@
       <c r="I21" s="7"/>
       <c r="J21" s="10"/>
       <c r="L21" s="17"/>
-      <c r="O21" t="s">
-        <v>28</v>
-      </c>
       <c r="Q21" s="13" t="s">
         <v>28</v>
       </c>
@@ -1539,14 +1593,11 @@
       <c r="I22" s="7"/>
       <c r="J22" s="10"/>
       <c r="L22" s="17"/>
-      <c r="O22" s="21" t="s">
-        <v>22</v>
-      </c>
       <c r="Q22" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="4:15">
+    <row r="23" spans="4:12">
       <c r="D23" s="6"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
@@ -1554,9 +1605,6 @@
       <c r="I23" s="7"/>
       <c r="J23" s="10"/>
       <c r="L23" s="17"/>
-      <c r="O23" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="24" spans="4:17">
       <c r="D24" s="6"/>
@@ -1567,7 +1615,7 @@
       <c r="J24" s="10"/>
       <c r="L24" s="17"/>
       <c r="Q24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="4:17">
@@ -1579,7 +1627,7 @@
       <c r="J25" s="10"/>
       <c r="L25" s="17"/>
       <c r="Q25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="4:12">
@@ -1609,38 +1657,59 @@
       <c r="J28" s="10"/>
       <c r="L28" s="17"/>
     </row>
-    <row r="29" spans="4:12">
+    <row r="29" spans="4:15">
       <c r="D29" s="6"/>
       <c r="L29" s="17"/>
-    </row>
-    <row r="30" spans="4:12">
+      <c r="N29" t="s">
+        <v>32</v>
+      </c>
+      <c r="O29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="4:19">
       <c r="D30" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G30" s="11" t="s">
         <v>23</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I30" s="11" t="s">
         <v>24</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K30" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L30" s="19"/>
-    </row>
-    <row r="31" spans="4:12">
+      <c r="O30" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="P30" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q30" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="R30" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="S30" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="4:19">
       <c r="D31" s="6"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -1650,41 +1719,106 @@
       <c r="J31" s="11"/>
       <c r="K31" s="11"/>
       <c r="L31" s="19"/>
-    </row>
-    <row r="32" spans="4:12">
+      <c r="O31" s="21"/>
+      <c r="P31" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q31" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="R31" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="S31" s="21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="4:19">
       <c r="D32" s="12"/>
       <c r="E32" s="13" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J32" s="13" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="L32" s="20"/>
-    </row>
-    <row r="36" spans="6:6">
+        <v>53</v>
+      </c>
+      <c r="L32" s="22"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="21"/>
+    </row>
+    <row r="33" spans="15:19">
+      <c r="O33" s="21"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="21"/>
+    </row>
+    <row r="34" spans="15:19">
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="21"/>
+      <c r="S34" s="21"/>
+    </row>
+    <row r="35" spans="15:19">
+      <c r="O35" s="21"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="21"/>
+      <c r="R35" s="21"/>
+      <c r="S35" s="21"/>
+    </row>
+    <row r="36" spans="6:19">
       <c r="F36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="40" spans="5:5">
+        <v>54</v>
+      </c>
+      <c r="O36" s="21"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="21"/>
+      <c r="R36" s="21"/>
+      <c r="S36" s="21"/>
+    </row>
+    <row r="37" spans="15:19">
+      <c r="O37" s="21"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="21"/>
+      <c r="R37" s="21"/>
+      <c r="S37" s="21"/>
+    </row>
+    <row r="38" spans="15:19">
+      <c r="O38" s="21"/>
+      <c r="P38" s="21"/>
+      <c r="Q38" s="21"/>
+      <c r="R38" s="21"/>
+      <c r="S38" s="21"/>
+    </row>
+    <row r="39" spans="15:19">
+      <c r="O39" s="21"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="21"/>
+      <c r="R39" s="21"/>
+      <c r="S39" s="21"/>
+    </row>
+    <row r="40" ht="15" spans="5:5">
       <c r="E40" s="14"/>
     </row>
-    <row r="44" spans="5:5">
+    <row r="44" ht="15" spans="5:5">
       <c r="E44" s="14"/>
     </row>
   </sheetData>
